--- a/assets/template/3a3.xlsx
+++ b/assets/template/3a3.xlsx
@@ -1,29 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\borang\assets\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\e-borang\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD48A28D-14A7-4F63-911A-3387C0CF38BF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16785" windowHeight="8460"/>
+    <workbookView xWindow="3405" yWindow="3795" windowWidth="19680" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3a3" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="diploma">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -83,7 +86,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -244,9 +247,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -255,27 +279,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -292,113 +295,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Menu"/>
-      <sheetName val="Daftar Tabel"/>
-      <sheetName val="PS"/>
-      <sheetName val="1-1"/>
-      <sheetName val="1-2"/>
-      <sheetName val="1-3"/>
-      <sheetName val="2a"/>
-      <sheetName val="2b"/>
-      <sheetName val="3a1"/>
-      <sheetName val="3a2"/>
-      <sheetName val="3a3"/>
-      <sheetName val="3a4"/>
-      <sheetName val="3a5"/>
-      <sheetName val="3b1"/>
-      <sheetName val="3b2"/>
-      <sheetName val="3b3"/>
-      <sheetName val="3b4-1"/>
-      <sheetName val="3b4-2"/>
-      <sheetName val="3b5-1"/>
-      <sheetName val="3b5-2"/>
-      <sheetName val="3b5-3"/>
-      <sheetName val="3b5-4"/>
-      <sheetName val="3b6"/>
-      <sheetName val="3b7"/>
-      <sheetName val="4"/>
-      <sheetName val="5a"/>
-      <sheetName val="5b"/>
-      <sheetName val="5c"/>
-      <sheetName val="6a"/>
-      <sheetName val="6b"/>
-      <sheetName val="7"/>
-      <sheetName val="8a"/>
-      <sheetName val="8b1"/>
-      <sheetName val="8b2"/>
-      <sheetName val="8c"/>
-      <sheetName val="8d1"/>
-      <sheetName val="8d2"/>
-      <sheetName val="8e1"/>
-      <sheetName val="Ref 8e2"/>
-      <sheetName val="8e2"/>
-      <sheetName val="8f1-1"/>
-      <sheetName val="8f1-2"/>
-      <sheetName val="8f2"/>
-      <sheetName val="8f3"/>
-      <sheetName val="8f4-1"/>
-      <sheetName val="8f4-2"/>
-      <sheetName val="8f4-3"/>
-      <sheetName val="8f4-4"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -697,7 +593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -734,102 +630,102 @@
     </row>
     <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="3" t="s">
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="4" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="3" t="s">
+      <c r="E8" s="12"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="4">
         <v>1</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="4">
         <v>2</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="4">
         <v>3</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="4">
         <v>4</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="4">
         <v>5</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="4">
         <v>6</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="4">
         <v>7</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="4">
         <v>8</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="4">
         <v>9</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="4">
         <v>10</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="4">
         <v>11</v>
       </c>
     </row>
@@ -837,19 +733,19 @@
       <c r="A11" s="2">
         <v>1</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6">
         <f>SUM(D11:I11)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="6">
         <f>J11/2</f>
         <v>0</v>
       </c>
@@ -858,19 +754,19 @@
       <c r="A12" s="2">
         <v>2</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12">
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6">
         <f t="shared" ref="J12:J22" si="0">SUM(D12:I12)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="6">
         <f t="shared" ref="K12:K22" si="1">J12/2</f>
         <v>0</v>
       </c>
@@ -879,19 +775,19 @@
       <c r="A13" s="2">
         <v>3</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12">
+      <c r="B13" s="7"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -900,19 +796,19 @@
       <c r="A14" s="2">
         <v>4</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12">
+      <c r="B14" s="7"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -921,19 +817,19 @@
       <c r="A15" s="2">
         <v>5</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12">
+      <c r="B15" s="7"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -942,19 +838,19 @@
       <c r="A16" s="2">
         <v>6</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12">
+      <c r="B16" s="7"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -963,19 +859,19 @@
       <c r="A17" s="2">
         <v>7</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12">
+      <c r="B17" s="7"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K17" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -984,19 +880,19 @@
       <c r="A18" s="2">
         <v>8</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12">
+      <c r="B18" s="7"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K18" s="12">
+      <c r="K18" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1005,19 +901,19 @@
       <c r="A19" s="2">
         <v>9</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12">
+      <c r="B19" s="7"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K19" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1026,19 +922,19 @@
       <c r="A20" s="2">
         <v>10</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12">
+      <c r="B20" s="7"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K20" s="12">
+      <c r="K20" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1047,19 +943,19 @@
       <c r="A21" s="2">
         <v>11</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12">
+      <c r="B21" s="7"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1068,41 +964,41 @@
       <c r="A22" s="2">
         <v>12</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12">
+      <c r="B22" s="7"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K22" s="12">
+      <c r="K22" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="D7:I7"/>
     <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11:C21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11:C21" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$G$4:$G$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$B$3:$B$5</formula1>
     </dataValidation>
   </dataValidations>
